--- a/parametrageIG/ig/CodeSystem-competence-code-system.xlsx
+++ b/parametrageIG/ig/CodeSystem-competence-code-system.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/CodeSystem/competence-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/hl7v2/teleradiologie/CodeSystem/competence-code-system</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T17:02:48+00:00</t>
+    <t>2025-11-03T08:54:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/parametrageIG/ig/CodeSystem-competence-code-system.xlsx
+++ b/parametrageIG/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T08:54:00+00:00</t>
+    <t>2025-11-03T09:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
